--- a/artfynd/A 62805-2025 artfynd.xlsx
+++ b/artfynd/A 62805-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130754902</v>
       </c>
       <c r="B2" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>130756304</v>
       </c>
       <c r="B3" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>130756077</v>
       </c>
       <c r="B4" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
